--- a/Release Aug2014/cpt4_to_snomed_condition_map.xlsx
+++ b/Release Aug2014/cpt4_to_snomed_condition_map.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="103">
   <si>
     <t>1011F</t>
   </si>
@@ -253,6 +253,78 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>3760F</t>
+  </si>
+  <si>
+    <t>9005F</t>
+  </si>
+  <si>
+    <t>9006F</t>
+  </si>
+  <si>
+    <t>9007F</t>
+  </si>
+  <si>
+    <t>3762F</t>
+  </si>
+  <si>
+    <t>3756F</t>
+  </si>
+  <si>
+    <t>3753F</t>
+  </si>
+  <si>
+    <t>1504F</t>
+  </si>
+  <si>
+    <t>Patient exhibits dysphagia, weight loss, or impaired nutrition (ALS)</t>
+  </si>
+  <si>
+    <t>Asymptomatic carotid stenosis: No history of any transient ischemic attack or stroke in any carotid or vertebrobasilar territory (NMA-No Measure Associated)</t>
+  </si>
+  <si>
+    <t>Symptomatic carotid stenosis: Ipsilateral carotid territory TIA or stroke less than 120 days prior to procedure (NMA-No Measure Associated)</t>
+  </si>
+  <si>
+    <t>Other carotid stenosis: Ipsilateral TIA or stroke 120 days or greater prior to procedure or any prior contralateral carotid territory or vertebrobasilar TIA or stroke (NMA-No Measure Associated)</t>
+  </si>
+  <si>
+    <t>Patient is dysarthric (ALS)</t>
+  </si>
+  <si>
+    <t>Patient has pseudobulbar affect, sialorrhea, or ALS-related symptoms (ALS)</t>
+  </si>
+  <si>
+    <t>Patient has clear clinical symptoms and signs that are highly suggestive of neuropathy AND cannot be attributed to another condition, AND has an obvious cause for the neuropathy (DSP)</t>
+  </si>
+  <si>
+    <t>Patient has respiratory insufficiency (ALS)</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>4229881</t>
+  </si>
+  <si>
+    <t>44784634</t>
+  </si>
+  <si>
+    <t>4196636</t>
+  </si>
+  <si>
+    <t>4197184</t>
+  </si>
+  <si>
+    <t>4301699</t>
+  </si>
+  <si>
+    <t>318459</t>
+  </si>
+  <si>
+    <t>442615</t>
   </si>
 </sst>
 </file>
@@ -599,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G27"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1236,8 +1308,193 @@
         <v>78</v>
       </c>
     </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
